--- a/data/long_razon/P24_8-Estudios-long_razon.xlsx
+++ b/data/long_razon/P24_8-Estudios-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-52,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-14,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-13,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-25,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-9,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-79,49; 20,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-70,36; 99,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-51,3; 72,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-46,99; 41,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-45,58; 47,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 96,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-51,69; 16,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-42,22; 44,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 65,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-40,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>37,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-32,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-10,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-35,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-64,35; -0,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 120,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,45; 52,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-49,55; -9,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,93; 29,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 67,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,07; -16,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 40,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 43,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-22,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-55,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-8,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-39,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-13,77%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1103,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-42,79; 47,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 96,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-53,76; 19,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-69,1; -34,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 77,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,35; 21,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-54,49; -18,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 65,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-34,26; 11,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-32,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-36,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-35,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1273,268 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-50,72; -7,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 69,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-29,81; 17,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-49,29; -23,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,02; 26,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 38,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,93; -23,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 30,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 22,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_8-Estudios-long_razon.xlsx
+++ b/data/long_razon/P24_8-Estudios-long_razon.xlsx
@@ -683,20 +683,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.6099426792579906</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.2892007811787566</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.07253485331768175</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.102392357666053</v>
+      </c>
       <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>0.4732636957599757</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.0472666363598164</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.4152819637754062</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.1540462698506263</v>
+      </c>
       <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="n">
+        <v>-0.03529869928711879</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.02312796090272057</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>0.2267798987571027</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>0.4467265284917168</v>
+      </c>
       <c r="Q4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
@@ -706,20 +730,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.8633843343239205</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.6771188296594459</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4998253564971848</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.02428515498086556</v>
+      </c>
       <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>-0.2548472495843399</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.4958383067327102</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.0591631366076781</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.3734492464960352</v>
+      </c>
       <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="n">
+        <v>-0.4480238740501168</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.4250706587931806</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.0991818776481396</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>-0.09306899593846328</v>
+      </c>
       <c r="Q5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -729,20 +777,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.175602930906784</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.486354738798154</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.7787273184568791</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>3.962353057039329</v>
+      </c>
       <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>2.241691063257562</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.6750819218662047</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>1.220337543639575</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.9767836101558961</v>
+      </c>
       <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="n">
+        <v>0.7286332116442698</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.6662076789834974</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.7412749564473837</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>1.30419514002524</v>
+      </c>
       <c r="Q6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
@@ -756,20 +828,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.5413162130641421</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.4339661738854838</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.02040532286192214</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.04306512223287488</v>
+      </c>
       <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>-0.4094108598707621</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.181537509801064</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.2046836490176706</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.001032385296846639</v>
+      </c>
       <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="n">
+        <v>-0.4588756388386925</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.02225003123647386</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0.1014753263946944</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0.01911587530833504</v>
+      </c>
       <c r="Q7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
@@ -779,20 +875,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.7888231466168125</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.1531090044637368</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3113327128949222</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.3430448188754694</v>
+      </c>
       <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>-0.5940172043804824</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.4390921000070612</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.1263476800030682</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.2566408129384242</v>
+      </c>
       <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="n">
+        <v>-0.6181862327999276</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.2342550188275185</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.1340128967373176</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-0.2316646577244814</v>
+      </c>
       <c r="Q8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
@@ -802,20 +922,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>-0.1000749062909905</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.551286228834517</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4938571426960585</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.076387712092169</v>
+      </c>
       <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>-0.1512161034946043</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.198407986147829</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.6378183043915613</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.3478119265422659</v>
+      </c>
       <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="n">
+        <v>-0.2458355698073768</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.4383119815813707</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.3918194493648044</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>0.4039425915656961</v>
+      </c>
       <c r="Q9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
@@ -829,20 +973,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.1152462091321465</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.1917384770378948</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.1999795846790337</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.1689382667518785</v>
+      </c>
       <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>-0.537036229788984</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.3052805624392836</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.07558031129433081</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.28863313967673</v>
+      </c>
       <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="n">
+        <v>-0.4048739057920058</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.2570794545420171</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>-0.1250351008988424</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>-0.24818125405048</v>
+      </c>
       <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -852,20 +1020,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.4961111530638351</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2818662919489176</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.5191990630125536</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.5140738760254693</v>
+      </c>
       <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-0.7049212380115389</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.1084468026001878</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.3026383868320027</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.5031911878430871</v>
+      </c>
       <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="n">
+        <v>-0.5666221317357396</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.03924952922812115</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.337157168053642</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.4598671020274537</v>
+      </c>
       <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -875,20 +1067,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.6146030012692103</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.046814651712532</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.3001001222665503</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.4306184533093848</v>
+      </c>
       <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>-0.2993252552013257</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.8162806858853644</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.2328490051258475</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.03442021499803648</v>
+      </c>
       <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="n">
+        <v>-0.1359115256290854</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.7207483040074184</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.1347735705386122</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.01415404070278347</v>
+      </c>
       <c r="Q12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -902,20 +1118,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.4218781654815236</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.3097491284356178</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.09130651092157575</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1265290654836337</v>
+      </c>
       <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>-0.3698327400857023</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.002324537591469737</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.1426973812191639</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.07508753234432862</v>
+      </c>
       <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="n">
+        <v>-0.3888013250838687</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.1081533670416791</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0.04392229792452873</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0.001101565235081562</v>
+      </c>
       <c r="Q13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
@@ -925,20 +1165,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.6643193242528525</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.05066092560835835</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.3128425729860633</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.1843564595665088</v>
+      </c>
       <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>-0.4996220222880245</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.2242314728069932</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.04288882081705409</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.2587834675100004</v>
+      </c>
       <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="n">
+        <v>-0.5095677973457048</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.08818011663703916</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.1148644051774255</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>-0.165404120361642</v>
+      </c>
       <c r="Q14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
@@ -948,20 +1212,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>-0.1553428042267939</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.8557481933348646</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.1855225481723265</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.6230805454923902</v>
+      </c>
       <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>-0.1823080472723338</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.2780439317999613</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.3688018716680174</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.1554468988409585</v>
+      </c>
       <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="n">
+        <v>-0.2425270337197825</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.3380157551075162</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.2250288114626384</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.2196045776275617</v>
+      </c>
       <c r="Q15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
